--- a/excel_files/demo/insert_multiple_department.xlsx
+++ b/excel_files/demo/insert_multiple_department.xlsx
@@ -3,6 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <workbookProtection workbookPassword="C0EF" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="5970"/>
   </bookViews>
@@ -17,13 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="5">
-  <si>
-    <t>Department Title</t>
-  </si>
-  <si>
-    <t>Department Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="6">
   <si>
     <t>Active</t>
   </si>
@@ -31,20 +26,92 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>Department Status</t>
+    <t>(*) marked fields are mandatory.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Department Title</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Department Code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Department Status</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Century Schoolbook"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,19 +137,6 @@
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
       <top style="medium">
         <color rgb="FFFF0000"/>
       </top>
@@ -208,45 +262,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,382 +623,692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="38.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="2" t="s">
-        <v>2</v>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="12"/>
+      <c r="E52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="96E3" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection password="C0EF" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <customSheetViews>
     <customSheetView guid="{E33A81B8-4E62-4CEF-8E86-36C5209ED9BD}" scale="140">
       <selection activeCell="D15" sqref="A1:XFD1048576"/>
@@ -932,9 +1316,12 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid data is not allowed." sqref="C2:C50">
-      <formula1>E3:E4</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C51">
+      <formula1>E3:F3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
